--- a/data_samples/archived/week-2/next-week.xlsx
+++ b/data_samples/archived/week-2/next-week.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\archived\2021-week-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\archived\week-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB649BD-0FED-4000-88B9-AD7F4BE78834}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D37125B-DBF0-475B-ACD2-1EB8964B72B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -552,7 +552,7 @@
   <dimension ref="A1:H2278"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,10 +609,10 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2" s="5">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="H2" s="5">
-        <v>2.1800000000000002</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -631,10 +631,10 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" s="5">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H3" s="5">
-        <v>2.0499999999999998</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -653,10 +653,10 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" s="5">
-        <v>4.8</v>
+        <v>4.25</v>
       </c>
       <c r="H4" s="5">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -678,7 +678,7 @@
         <v>1.35</v>
       </c>
       <c r="H5" s="5">
-        <v>3.25</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -697,10 +697,10 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" s="5">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H6" s="5">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -722,7 +722,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="H7" s="5">
-        <v>6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -741,10 +741,10 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" s="5">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H8" s="5">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
         <v>1.5</v>
       </c>
       <c r="H9" s="5">
-        <v>2.6</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -774,10 +774,10 @@
         <v>44280</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>3</v>
